--- a/StringingCompiled_Output.xlsx
+++ b/StringingCompiled_Output.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -6526,7 +6526,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -6886,7 +6886,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -7246,7 +7246,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -7518,7 +7518,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -7608,7 +7608,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -7698,7 +7698,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -7878,7 +7878,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -8148,7 +8148,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -8238,7 +8238,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -8328,7 +8328,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -8418,7 +8418,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -8598,7 +8598,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -8958,7 +8958,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -9052,7 +9052,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -9142,7 +9142,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -9232,7 +9232,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -9322,7 +9322,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -9412,7 +9412,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -9502,7 +9502,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9592,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -9682,7 +9682,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -9862,7 +9862,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -9952,7 +9952,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -10042,7 +10042,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -10132,7 +10132,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -10222,7 +10222,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -10314,7 +10314,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -10678,7 +10678,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -10768,7 +10768,7 @@
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -10858,7 +10858,7 @@
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -10948,7 +10948,7 @@
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -11053,7 +11053,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>157/0</t>
+          <t>194/0</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -11063,15 +11063,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>158/0</t>
+          <t>195/0</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1575.8</v>
+        <v>182</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>TSE</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -11087,22 +11087,36 @@
       </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
+      <c r="M117" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="N117" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="O117" t="n">
+        <v>182</v>
+      </c>
+      <c r="P117" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="Q117" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="R117" t="n">
+        <v>182</v>
+      </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>WIP</t>
-        </is>
-      </c>
-      <c r="T117" t="inlineStr"/>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="T117" s="2" t="n">
+        <v>45931</v>
+      </c>
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr">
         <is>
-          <t>Deepak Sarkar</t>
+          <t>Enamul Haque</t>
         </is>
       </c>
       <c r="W117" t="inlineStr"/>
@@ -11114,7 +11128,7 @@
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11143,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>168/0</t>
+          <t>157/0</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -11139,11 +11153,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>169/0</t>
+          <t>158/0</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1044</v>
+        <v>1575.8</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -11178,19 +11192,19 @@
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr">
         <is>
-          <t>Sindhu Const.</t>
+          <t>Deepak Sarkar</t>
         </is>
       </c>
       <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr"/>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>Vadodara</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -11205,7 +11219,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>177/0</t>
+          <t>168/0</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -11215,15 +11229,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>178/0</t>
+          <t>169/0</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>405</v>
+        <v>1044</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -11254,7 +11268,7 @@
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr">
         <is>
-          <t>Ruhul Amin</t>
+          <t>Sindhu Const.</t>
         </is>
       </c>
       <c r="W119" t="inlineStr"/>
@@ -11266,7 +11280,7 @@
       </c>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -11281,21 +11295,21 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>177/0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
           <t>178/0</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>179/0</t>
-        </is>
-      </c>
       <c r="F120" t="n">
-        <v>278</v>
+        <v>405</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -11337,12 +11351,12 @@
       <c r="X120" t="inlineStr"/>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>Surat</t>
+          <t>Vadodara</t>
         </is>
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -11357,7 +11371,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>189/0</t>
+          <t>178/0</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -11367,11 +11381,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>190/0</t>
+          <t>179/0</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>829</v>
+        <v>278</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -11406,7 +11420,7 @@
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr">
         <is>
-          <t>Md Anwar</t>
+          <t>Ruhul Amin</t>
         </is>
       </c>
       <c r="W121" t="inlineStr"/>
@@ -11418,7 +11432,7 @@
       </c>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -11433,7 +11447,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>191/0</t>
+          <t>189/0</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -11443,15 +11457,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>191A/0</t>
+          <t>190/0</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1477</v>
+        <v>829</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>TSE</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -11467,18 +11481,10 @@
       </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" s="2" t="n">
-        <v>45952</v>
-      </c>
-      <c r="N122" s="2" t="n">
-        <v>45955</v>
-      </c>
-      <c r="O122" t="n">
-        <v>1477</v>
-      </c>
-      <c r="P122" s="2" t="n">
-        <v>45955</v>
-      </c>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="inlineStr">
@@ -11490,19 +11496,19 @@
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr">
         <is>
-          <t>Alam Construction</t>
+          <t>Md Anwar</t>
         </is>
       </c>
       <c r="W122" t="inlineStr"/>
       <c r="X122" t="inlineStr"/>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>Vadodara</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -11517,25 +11523,25 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>191/0</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
           <t>191A/0</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>192/0</t>
-        </is>
-      </c>
       <c r="F123" t="n">
-        <v>612</v>
+        <v>1477</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -11552,16 +11558,16 @@
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
       <c r="M123" s="2" t="n">
-        <v>45942</v>
+        <v>45952</v>
       </c>
       <c r="N123" s="2" t="n">
-        <v>45949</v>
+        <v>45955</v>
       </c>
       <c r="O123" t="n">
-        <v>612</v>
+        <v>1477</v>
       </c>
       <c r="P123" s="2" t="n">
-        <v>45954</v>
+        <v>45955</v>
       </c>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr"/>
@@ -11574,19 +11580,19 @@
       <c r="U123" t="inlineStr"/>
       <c r="V123" t="inlineStr">
         <is>
-          <t>Md Anwar</t>
+          <t>Alam Construction</t>
         </is>
       </c>
       <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr"/>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>Bharuch</t>
+          <t>Vadodara</t>
         </is>
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11607,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>194/0</t>
+          <t>191A/0</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -11611,11 +11617,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>195/0</t>
+          <t>192/0</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>182</v>
+        <v>612</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -11636,10 +11642,14 @@
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" s="2" t="n">
-        <v>45954</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
+        <v>45942</v>
+      </c>
+      <c r="N124" s="2" t="n">
+        <v>45949</v>
+      </c>
+      <c r="O124" t="n">
+        <v>612</v>
+      </c>
       <c r="P124" s="2" t="n">
         <v>45954</v>
       </c>
@@ -11654,19 +11664,19 @@
       <c r="U124" t="inlineStr"/>
       <c r="V124" t="inlineStr">
         <is>
-          <t>Enamul Haque</t>
+          <t>Md Anwar</t>
         </is>
       </c>
       <c r="W124" t="inlineStr"/>
       <c r="X124" t="inlineStr"/>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>Surat</t>
+          <t>Bharuch</t>
         </is>
       </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11758,7 @@
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -11830,7 +11840,7 @@
       </c>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -11906,7 +11916,7 @@
       </c>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -11982,7 +11992,7 @@
       </c>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -12058,7 +12068,7 @@
       </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -12134,7 +12144,7 @@
       </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -12187,7 +12197,7 @@
         <v>45953</v>
       </c>
       <c r="N131" s="2" t="n">
-        <v>45955</v>
+        <v>45957</v>
       </c>
       <c r="O131" t="n">
         <v>402</v>
@@ -12216,7 +12226,7 @@
       </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -12292,7 +12302,7 @@
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -12362,7 +12372,7 @@
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -12432,7 +12442,7 @@
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -12504,7 +12514,7 @@
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -12572,7 +12582,7 @@
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -12640,7 +12650,7 @@
       </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -12712,7 +12722,7 @@
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -12782,7 +12792,7 @@
       </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -12852,7 +12862,7 @@
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -12922,7 +12932,7 @@
       </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -12992,7 +13002,7 @@
       </c>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -13062,7 +13072,7 @@
       </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -13134,7 +13144,7 @@
       </c>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -13206,7 +13216,7 @@
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -13278,7 +13288,7 @@
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -13350,7 +13360,7 @@
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -13422,7 +13432,7 @@
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -13494,7 +13504,7 @@
       </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -13562,7 +13572,7 @@
       </c>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -13630,7 +13640,7 @@
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -13698,7 +13708,7 @@
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -13766,7 +13776,7 @@
       </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -13834,7 +13844,7 @@
       </c>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -13902,7 +13912,7 @@
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -13970,7 +13980,7 @@
       </c>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -14038,7 +14048,7 @@
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -14106,7 +14116,7 @@
       </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -14174,7 +14184,7 @@
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -14242,7 +14252,7 @@
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -14312,7 +14322,7 @@
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -14382,7 +14392,7 @@
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -14452,7 +14462,7 @@
       </c>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -14522,7 +14532,7 @@
       </c>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -14592,7 +14602,7 @@
       </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -14662,7 +14672,7 @@
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -14732,7 +14742,7 @@
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -14802,7 +14812,7 @@
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -14870,7 +14880,7 @@
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -14938,7 +14948,7 @@
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -15006,7 +15016,7 @@
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -15076,7 +15086,7 @@
       </c>
       <c r="Z172" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -15146,7 +15156,7 @@
       </c>
       <c r="Z173" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -15216,7 +15226,7 @@
       </c>
       <c r="Z174" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -15286,7 +15296,7 @@
       </c>
       <c r="Z175" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -15356,7 +15366,7 @@
       </c>
       <c r="Z176" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -15426,7 +15436,7 @@
       </c>
       <c r="Z177" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -15496,7 +15506,7 @@
       </c>
       <c r="Z178" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -15566,7 +15576,7 @@
       </c>
       <c r="Z179" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -15636,7 +15646,7 @@
       </c>
       <c r="Z180" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -15706,7 +15716,7 @@
       </c>
       <c r="Z181" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -15776,7 +15786,7 @@
       </c>
       <c r="Z182" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15856,7 @@
       </c>
       <c r="Z183" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -15916,7 +15926,7 @@
       </c>
       <c r="Z184" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -15986,7 +15996,7 @@
       </c>
       <c r="Z185" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -16056,7 +16066,7 @@
       </c>
       <c r="Z186" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -16126,7 +16136,7 @@
       </c>
       <c r="Z187" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -16196,7 +16206,7 @@
       </c>
       <c r="Z188" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -16266,7 +16276,7 @@
       </c>
       <c r="Z189" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -16336,7 +16346,7 @@
       </c>
       <c r="Z190" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -16406,7 +16416,7 @@
       </c>
       <c r="Z191" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -16476,7 +16486,7 @@
       </c>
       <c r="Z192" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -16546,7 +16556,7 @@
       </c>
       <c r="Z193" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -16616,7 +16626,7 @@
       </c>
       <c r="Z194" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -16686,7 +16696,7 @@
       </c>
       <c r="Z195" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -16756,7 +16766,7 @@
       </c>
       <c r="Z196" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -16826,7 +16836,7 @@
       </c>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -16896,7 +16906,7 @@
       </c>
       <c r="Z198" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -16966,7 +16976,7 @@
       </c>
       <c r="Z199" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -17034,7 +17044,7 @@
       </c>
       <c r="Z200" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -17104,7 +17114,7 @@
       </c>
       <c r="Z201" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -17174,7 +17184,7 @@
       </c>
       <c r="Z202" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -17244,7 +17254,7 @@
       </c>
       <c r="Z203" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -17314,7 +17324,7 @@
       </c>
       <c r="Z204" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -17384,7 +17394,7 @@
       </c>
       <c r="Z205" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -17454,7 +17464,7 @@
       </c>
       <c r="Z206" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -17524,7 +17534,7 @@
       </c>
       <c r="Z207" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -17594,7 +17604,7 @@
       </c>
       <c r="Z208" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -17664,7 +17674,7 @@
       </c>
       <c r="Z209" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -17732,7 +17742,7 @@
       </c>
       <c r="Z210" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -17802,7 +17812,7 @@
       </c>
       <c r="Z211" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -17872,7 +17882,7 @@
       </c>
       <c r="Z212" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -17942,7 +17952,7 @@
       </c>
       <c r="Z213" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -18012,7 +18022,7 @@
       </c>
       <c r="Z214" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -18082,7 +18092,7 @@
       </c>
       <c r="Z215" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -18152,7 +18162,7 @@
       </c>
       <c r="Z216" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -18220,7 +18230,7 @@
       </c>
       <c r="Z217" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -18288,7 +18298,7 @@
       </c>
       <c r="Z218" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -18356,7 +18366,7 @@
       </c>
       <c r="Z219" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -18424,7 +18434,7 @@
       </c>
       <c r="Z220" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -18494,7 +18504,7 @@
       </c>
       <c r="Z221" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -18564,7 +18574,7 @@
       </c>
       <c r="Z222" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -18632,7 +18642,7 @@
       </c>
       <c r="Z223" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -18700,7 +18710,7 @@
       </c>
       <c r="Z224" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -18768,7 +18778,7 @@
       </c>
       <c r="Z225" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -18836,7 +18846,7 @@
       </c>
       <c r="Z226" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -18904,7 +18914,7 @@
       </c>
       <c r="Z227" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -18936,7 +18946,7 @@
       <c r="Y228" t="inlineStr"/>
       <c r="Z228" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -18974,7 +18984,7 @@
       <c r="Y229" t="inlineStr"/>
       <c r="Z229" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
     </row>
@@ -19094,13 +19104,13 @@
         <v>121</v>
       </c>
       <c r="I2" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>101.848744</v>
+        <v>102.030744</v>
       </c>
       <c r="L2" t="n">
         <v>0.16</v>
@@ -19120,7 +19130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19263,7 +19273,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -19333,7 +19343,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -19344,7 +19354,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -19414,7 +19424,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -19425,7 +19435,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -19495,7 +19505,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -19506,7 +19516,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -19576,7 +19586,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -19587,7 +19597,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -19657,7 +19667,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -19668,7 +19678,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -19746,7 +19756,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -19757,7 +19767,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -19835,7 +19845,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -19846,7 +19856,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -19855,7 +19865,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>194/0</t>
+          <t>195/0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -19865,15 +19875,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>195/0</t>
+          <t>195A/0</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>182</v>
+        <v>2481</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -19890,13 +19900,15 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" s="2" t="n">
-        <v>45954</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" s="2" t="n">
-        <v>45954</v>
-      </c>
+        <v>45949</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>45956</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2481</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
@@ -19915,12 +19927,12 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Surat</t>
+          <t>Bharuch</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -19931,7 +19943,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -19940,7 +19952,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>195/0</t>
+          <t>195A/0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -19950,11 +19962,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>195A/0</t>
+          <t>196/0</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2481</v>
+        <v>1542</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -19975,13 +19987,13 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" s="2" t="n">
-        <v>45949</v>
+        <v>45942</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>45956</v>
+        <v>45948</v>
       </c>
       <c r="O10" t="n">
-        <v>2481</v>
+        <v>1542</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -19995,7 +20007,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Enamul Haque</t>
+          <t>Muslehuddin</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -20007,7 +20019,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -20018,7 +20030,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -20027,7 +20039,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>195A/0</t>
+          <t>196/0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -20037,15 +20049,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>196/0</t>
+          <t>197/0</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1542</v>
+        <v>246</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>TSE</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -20061,15 +20073,9 @@
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" s="2" t="n">
-        <v>45942</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>45948</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1542</v>
-      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -20082,7 +20088,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Muslehuddin</t>
+          <t>Giyash</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -20094,18 +20100,18 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Invalid F/S Complete Date</t>
+          <t>Invalid PO Start Date; Invalid F/S Complete Date</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -20114,7 +20120,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>196/0</t>
+          <t>197/0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -20124,15 +20130,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>197/0</t>
+          <t>198/0</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>246</v>
+        <v>1740</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -20163,19 +20169,19 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Giyash</t>
+          <t>Muslehuddin</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Bharuch</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -20186,7 +20192,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -20195,7 +20201,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>197/0</t>
+          <t>204/0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -20205,15 +20211,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>198/0</t>
+          <t>205/0</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1740</v>
+        <v>198</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>TSE</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -20244,19 +20250,19 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>Muslehuddin</t>
+          <t>Dharmendra 2</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Surat</t>
+          <t>Bharuch</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -20267,7 +20273,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -20276,7 +20282,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>204/0</t>
+          <t>248/0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -20286,15 +20292,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>205/0</t>
+          <t>249/0</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>198</v>
+        <v>2525</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -20325,7 +20331,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Dharmendra 2</t>
+          <t>Kamaruddin</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -20337,7 +20343,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -20348,7 +20354,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -20357,7 +20363,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>248/0</t>
+          <t>274/0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -20367,15 +20373,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>249/0</t>
+          <t>275/0</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2525</v>
+        <v>402</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>TSE</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -20391,9 +20397,15 @@
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="M15" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="O15" t="n">
+        <v>402</v>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -20406,30 +20418,30 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Kamaruddin</t>
+          <t>Bhola</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Bharuch</t>
+          <t>Navsari</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Invalid PO Start Date; Invalid F/S Complete Date</t>
+          <t>Invalid F/S Complete Date</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -20438,7 +20450,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>274/0</t>
+          <t>275/0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -20448,15 +20460,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>275/0</t>
+          <t>276/0</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>402</v>
+        <v>177</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -20472,15 +20484,9 @@
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" s="2" t="n">
-        <v>45953</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>45955</v>
-      </c>
-      <c r="O16" t="n">
-        <v>402</v>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
@@ -20493,7 +20499,7 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Bhola</t>
+          <t>Dharmendra 1</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -20505,27 +20511,27 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Invalid F/S Complete Date</t>
+          <t>Invalid PO Start Date; Invalid F/S Complete Date</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BAR</t>
+          <t>JMB</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>275/0</t>
+          <t>101/0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -20535,26 +20541,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>276/0</t>
+          <t>102/0</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>177</v>
+        <v>665</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">102/0, </t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Ready</t>
+          <t>Not Ready</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -20565,28 +20573,20 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>WIP</t>
-        </is>
-      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>Dharmendra 1</t>
-        </is>
-      </c>
+      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Navsari</t>
+          <t>Bharuch</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -20597,7 +20597,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -20606,7 +20606,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>101/0</t>
+          <t>102/0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -20616,11 +20616,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>102/0</t>
+          <t>103/0</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>665</v>
+        <v>685</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -20656,12 +20656,12 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Bharuch</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -20672,7 +20672,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>102/0</t>
+          <t>103/0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -20691,23 +20691,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>103/0</t>
+          <t>104/0</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>685</v>
+        <v>680.12</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">103/0, </t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">102/0, </t>
+          <t xml:space="preserve">103/0, </t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -20736,7 +20738,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -20747,7 +20749,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -20756,7 +20758,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>103/0</t>
+          <t>104/0</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -20766,30 +20768,26 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>104/0</t>
+          <t>105/0</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>680.12</v>
+        <v>386.59</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">103/0, </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">103/0, </t>
-        </is>
+          <t>Hotline</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -20813,7 +20811,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -20824,7 +20822,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -20833,7 +20831,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>104/0</t>
+          <t>105/0</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -20843,15 +20841,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>105/0</t>
+          <t>106/0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>386.59</v>
+        <v>256.45</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -20886,7 +20884,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -20897,16 +20895,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>JMB</t>
+          <t>BAR</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>105/0</t>
+          <t>153/0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -20916,26 +20914,30 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>106/0</t>
+          <t>154/0</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>256.45</v>
+        <v>620</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">154/0, </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">154/0, </t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Ready</t>
+          <t>Not Ready</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -20959,7 +20961,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -20970,7 +20972,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -20979,7 +20981,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>153/0</t>
+          <t>154/0</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -20989,7 +20991,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>154/0</t>
+          <t>154/1</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -21000,14 +21002,12 @@
           <t>Manual</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">154/0, </t>
-        </is>
+      <c r="H23" t="n">
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">154/0, </t>
+          <t>154/1</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -21036,7 +21036,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -21047,7 +21047,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>154/0</t>
+          <t>154/1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -21066,11 +21066,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>154/1</t>
+          <t>155/0</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>620</v>
+        <v>415</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -21122,7 +21122,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>154/1</t>
+          <t>159/0</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -21141,11 +21141,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>155/0</t>
+          <t>159/2</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>415</v>
+        <v>720</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>154/1</t>
+          <t>159/2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -21186,7 +21186,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -21197,7 +21197,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -21206,7 +21206,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>159/0</t>
+          <t>159/2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -21216,15 +21216,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>159/2</t>
+          <t>160/0</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>720</v>
+        <v>1152.2</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -21232,7 +21232,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>159/2</t>
+          <t xml:space="preserve">160/0, </t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -21261,7 +21261,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -21272,7 +21272,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>159/2</t>
+          <t>160/0</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -21291,15 +21291,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>160/0</t>
+          <t>161/0</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1152.2</v>
+        <v>229.82</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>TSE</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -21336,7 +21336,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -21347,7 +21347,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>160/0</t>
+          <t>165/0</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -21366,23 +21366,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>161/0</t>
+          <t>165/4</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>229.82</v>
+        <v>1613</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hotline</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
+          <t>TSE</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>165/4</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">160/0, </t>
+          <t>165/4</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -21411,7 +21413,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -21422,7 +21424,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -21431,7 +21433,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>165/0</t>
+          <t>165/4</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -21441,25 +21443,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>165/4</t>
+          <t>165/5</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1613</v>
+        <v>538</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>TSE</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>165/4</t>
+          <t>165/5</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>165/4</t>
+          <t>165/5</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -21488,7 +21490,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -21499,7 +21501,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -21508,7 +21510,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>165/4</t>
+          <t>165/5</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -21518,11 +21520,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>165/5</t>
+          <t>166/0</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>538</v>
+        <v>423</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -21531,12 +21533,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>165/5</t>
+          <t xml:space="preserve">166/0, </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>165/5</t>
+          <t xml:space="preserve">166/0, </t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -21565,7 +21567,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -21576,7 +21578,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -21585,7 +21587,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>165/5</t>
+          <t>166/0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -21595,25 +21597,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>166/0</t>
+          <t>167/0</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>423</v>
+        <v>270</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">166/0, </t>
+          <t xml:space="preserve">167/0, </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">166/0, </t>
+          <t xml:space="preserve">167/0, </t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -21642,7 +21644,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -21653,7 +21655,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -21662,7 +21664,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>166/0</t>
+          <t>167/0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -21672,25 +21674,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>167/0</t>
+          <t>167/1</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>270</v>
+        <v>342</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">167/0, </t>
+          <t>167/1</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">167/0, </t>
+          <t>167/1</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -21719,7 +21721,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -21730,7 +21732,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -21739,7 +21741,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>167/0</t>
+          <t>167/1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -21749,15 +21751,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>167/1</t>
+          <t>168/0</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>342</v>
+        <v>1338</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -21796,7 +21798,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -21807,7 +21809,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -21816,7 +21818,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>167/1</t>
+          <t>169/0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -21826,30 +21828,26 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>168/0</t>
+          <t>171/0</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1338</v>
+        <v>433</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>TSE</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>167/1</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>167/1</t>
-        </is>
+          <t>Hotline</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -21873,7 +21871,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -21884,7 +21882,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -21893,7 +21891,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>169/0</t>
+          <t>171/0</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -21903,11 +21901,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>171/0</t>
+          <t>172/0</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>433</v>
+        <v>274</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -21946,7 +21944,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -21957,7 +21955,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -21966,7 +21964,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>171/0</t>
+          <t>172/0</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -21976,26 +21974,26 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>172/0</t>
+          <t>173/0</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>274</v>
+        <v>1123</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hotline</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
+          <t>TSE</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">172/1,173/0, </t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Ready</t>
+          <t>Not Ready</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -22019,7 +22017,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -22030,7 +22028,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -22039,7 +22037,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>172/0</t>
+          <t>173/0</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -22049,21 +22047,21 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>173/0</t>
+          <t>174/0</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1123</v>
+        <v>232</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>TSE</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">172/1,173/0, </t>
+          <t xml:space="preserve">173/0, ,174/0, </t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -22092,7 +22090,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -22103,7 +22101,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -22112,7 +22110,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>173/0</t>
+          <t>174/0</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -22122,21 +22120,21 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>174/0</t>
+          <t>174/1</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>232</v>
+        <v>381</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">173/0, ,174/0, </t>
+          <t xml:space="preserve">174/0, </t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -22165,7 +22163,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -22176,7 +22174,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -22185,7 +22183,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>174/0</t>
+          <t>174/1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -22195,26 +22193,26 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>174/1</t>
+          <t>175/0</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>381</v>
+        <v>289</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">174/0, </t>
-        </is>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -22238,7 +22236,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -22249,7 +22247,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -22258,7 +22256,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>174/1</t>
+          <t>175/0</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -22268,26 +22266,26 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>175/0</t>
+          <t>176/0</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>289</v>
+        <v>979</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
+          <t>TSE</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>175/1</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Ready</t>
+          <t>Not Ready</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -22311,7 +22309,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -22322,7 +22320,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -22331,7 +22329,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>175/0</t>
+          <t>176/0</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -22341,26 +22339,26 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>176/0</t>
+          <t>177/0</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>979</v>
+        <v>232</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>TSE</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>175/1</t>
-        </is>
+          <t>Hotline</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -22384,7 +22382,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -22395,7 +22393,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -22404,7 +22402,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>176/0</t>
+          <t>179/0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -22414,11 +22412,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>177/0</t>
+          <t>180/0</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -22457,7 +22455,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -22468,7 +22466,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -22477,7 +22475,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>179/0</t>
+          <t>180/0</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -22487,11 +22485,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>180/0</t>
+          <t>181/0</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -22530,7 +22528,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -22541,7 +22539,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -22550,7 +22548,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>180/0</t>
+          <t>181/0</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -22560,15 +22558,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>181/0</t>
+          <t>182/0</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>263</v>
+        <v>1778</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -22603,7 +22601,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -22614,7 +22612,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -22623,7 +22621,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>181/0</t>
+          <t>182/0</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -22633,26 +22631,28 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>182/0</t>
+          <t>182A/0</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1778</v>
+        <v>246</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>TSE</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">182A/0, </t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Ready</t>
+          <t>Not Ready</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -22676,7 +22676,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -22687,7 +22687,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>182/0</t>
+          <t>182A/0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -22706,15 +22706,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>182A/0</t>
+          <t>183/0</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>246</v>
+        <v>430</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -22722,7 +22722,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">182A/0, </t>
+          <t xml:space="preserve">182A/0, ,183/0, </t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -22751,7 +22751,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -22762,7 +22762,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>182A/0</t>
+          <t>183/0</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -22781,15 +22781,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>183/0</t>
+          <t>184/0</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>430</v>
+        <v>234</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -22797,7 +22797,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">182A/0, ,183/0, </t>
+          <t xml:space="preserve">183/0, ,184/0, </t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -22826,7 +22826,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -22837,7 +22837,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -22846,7 +22846,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>183/0</t>
+          <t>184/0</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -22856,15 +22856,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>184/0</t>
+          <t>184/1</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>234</v>
+        <v>468</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -22872,7 +22872,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">183/0, ,184/0, </t>
+          <t>184/0, ,184/1</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -22901,7 +22901,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -22912,7 +22912,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>184/0</t>
+          <t>184/1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -22931,11 +22931,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>184/1</t>
+          <t>185/0</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>468</v>
+        <v>412</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>184/0, ,184/1</t>
+          <t xml:space="preserve">184/1,185/0, </t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -22976,7 +22976,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -22987,7 +22987,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>184/1</t>
+          <t>185/0</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -23006,11 +23006,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>185/0</t>
+          <t>186/0</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>412</v>
+        <v>820</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">184/1,185/0, </t>
+          <t xml:space="preserve">185/1,185/0, 1,86/0, </t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -23051,7 +23051,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -23062,7 +23062,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>185/0</t>
+          <t>186/0</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -23081,15 +23081,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>186/0</t>
+          <t>187/0</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>820</v>
+        <v>399</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -23097,7 +23097,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">185/1,185/0, 1,86/0, </t>
+          <t xml:space="preserve">186/0, ,187/0, </t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -23126,7 +23126,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -23137,7 +23137,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>186/0</t>
+          <t>187/0</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -23156,15 +23156,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>187/0</t>
+          <t>188/0</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>399</v>
+        <v>1510</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -23172,7 +23172,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve">186/0, ,187/0, </t>
+          <t xml:space="preserve">187/0, </t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -23201,7 +23201,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -23212,7 +23212,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>187/0</t>
+          <t>188/0</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -23231,28 +23231,26 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>188/0</t>
+          <t>189/0</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1510</v>
+        <v>218</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>TSE</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">187/0, </t>
-        </is>
+      <c r="I53" t="n">
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -23276,7 +23274,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -23287,7 +23285,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -23296,7 +23294,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>188/0</t>
+          <t>190/0</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -23306,11 +23304,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>189/0</t>
+          <t>191/0</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>218</v>
+        <v>329</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -23349,7 +23347,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -23360,7 +23358,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -23369,7 +23367,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>190/0</t>
+          <t>198/0</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -23379,15 +23377,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>191/0</t>
+          <t>199/0</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>329</v>
+        <v>1149</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -23422,7 +23420,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -23433,7 +23431,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -23442,7 +23440,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>198/0</t>
+          <t>199/0</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -23452,26 +23450,28 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>199/0</t>
+          <t>200/0</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1149</v>
+        <v>221</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>TSE</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">200/0, </t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Ready</t>
+          <t>Not Ready</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -23495,7 +23495,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -23506,7 +23506,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>199/0</t>
+          <t>200/0</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -23525,11 +23525,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>200/0</t>
+          <t>201/0</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">200/0, </t>
+          <t xml:space="preserve">200/0, ,201/0, </t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -23570,7 +23570,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -23581,7 +23581,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>200/0</t>
+          <t>201/0</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -23600,15 +23600,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>201/0</t>
+          <t>201/1</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>204</v>
+        <v>532</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -23616,7 +23616,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve">200/0, ,201/0, </t>
+          <t>201/0, ,201/1</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -23645,7 +23645,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -23656,7 +23656,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>201/0</t>
+          <t>201/1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -23675,11 +23675,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>201/1</t>
+          <t>202/0</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>532</v>
+        <v>367</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>201/0, ,201/1</t>
+          <t xml:space="preserve">201/1,202/0, </t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -23720,7 +23720,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -23731,7 +23731,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>201/1</t>
+          <t>202/0</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -23750,11 +23750,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>202/0</t>
+          <t>203/0</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>367</v>
+        <v>788</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">201/1,202/0, </t>
+          <t xml:space="preserve">202/0, ,203/0, </t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -23795,7 +23795,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -23806,7 +23806,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>202/0</t>
+          <t>203/0</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -23825,11 +23825,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>203/0</t>
+          <t>203/1</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>788</v>
+        <v>460</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">202/0, ,203/0, </t>
+          <t>203/0, ,203/1</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -23870,7 +23870,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -23881,7 +23881,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>203/0</t>
+          <t>203/1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -23900,23 +23900,23 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
+          <t>204/0</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>425</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>203/1</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>460</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>203/0, ,203/1</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -23945,7 +23945,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -23956,7 +23956,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>203/1</t>
+          <t>205/0</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -23975,15 +23975,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>204/0</t>
+          <t>206/0</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>425</v>
+        <v>1063</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -23991,7 +23991,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>203/1</t>
+          <t xml:space="preserve">206/0, </t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -24020,7 +24020,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -24031,7 +24031,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>205/0</t>
+          <t>206/0</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -24050,15 +24050,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>206/0</t>
+          <t>208/0</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1063</v>
+        <v>412</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>TSE</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -24066,7 +24066,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve">206/0, </t>
+          <t xml:space="preserve">206/0, ,208/0, </t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -24095,7 +24095,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -24106,7 +24106,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>206/0</t>
+          <t>208/0</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -24125,15 +24125,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>208/0</t>
+          <t>209/0</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -24141,7 +24141,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve">206/0, ,208/0, </t>
+          <t xml:space="preserve">208/0, </t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -24170,7 +24170,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -24181,7 +24181,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>208/0</t>
+          <t>209/0</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -24200,11 +24200,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>209/0</t>
+          <t>210/0</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>410</v>
+        <v>699</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -24216,7 +24216,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve">208/0, </t>
+          <t xml:space="preserve">209/1,210/0, </t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -24245,7 +24245,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -24256,7 +24256,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>209/0</t>
+          <t>210/0</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -24275,15 +24275,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>210/0</t>
+          <t>211/0</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>699</v>
+        <v>223</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve">209/1,210/0, </t>
+          <t xml:space="preserve">210/0, ,211/0, </t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -24320,7 +24320,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -24331,7 +24331,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>210/0</t>
+          <t>211/0</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -24350,15 +24350,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>211/0</t>
+          <t>211A/0</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>223</v>
+        <v>1158</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -24366,7 +24366,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve">210/0, ,211/0, </t>
+          <t xml:space="preserve">211/0, ,211A/0, </t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -24395,7 +24395,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -24406,7 +24406,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -24415,7 +24415,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>211/0</t>
+          <t>211A/0</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -24425,11 +24425,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>211A/0</t>
+          <t>212/0</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1158</v>
+        <v>1024</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve">211/0, ,211A/0, </t>
+          <t xml:space="preserve">211A/0, 211A/1, 211A/2, 212/0, </t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -24470,7 +24470,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -24481,7 +24481,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>211A/0</t>
+          <t>212/0</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -24500,15 +24500,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>212/0</t>
+          <t>213/0</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1024</v>
+        <v>248</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>TSE</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -24516,7 +24516,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve">211A/0, 211A/1, 211A/2, 212/0, </t>
+          <t xml:space="preserve">212/0, ,213/0, </t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -24545,7 +24545,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -24556,7 +24556,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>212/0</t>
+          <t>213/0</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -24575,15 +24575,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>213/0</t>
+          <t>214/0</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>248</v>
+        <v>771</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -24591,7 +24591,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t xml:space="preserve">212/0, ,213/0, </t>
+          <t xml:space="preserve">213/1,213/0, ,214/0, </t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -24620,7 +24620,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -24631,7 +24631,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>213/0</t>
+          <t>214/0</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -24650,11 +24650,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>214/0</t>
+          <t>215/0</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>771</v>
+        <v>713</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve">213/1,213/0, ,214/0, </t>
+          <t>214/0,214/1</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -24695,7 +24695,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -24706,7 +24706,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>214/0</t>
+          <t>215/0</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -24725,15 +24725,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>215/0</t>
+          <t>216/0</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>713</v>
+        <v>632</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -24741,7 +24741,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>214/0,214/1</t>
+          <t xml:space="preserve">215/1, ,216/0, </t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -24770,7 +24770,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -24781,7 +24781,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>215/0</t>
+          <t>216/0</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -24800,11 +24800,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>216/0</t>
+          <t>217/0</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>632</v>
+        <v>456</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -24816,7 +24816,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve">215/1, ,216/0, </t>
+          <t xml:space="preserve">216/0, ,217/0, </t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -24845,7 +24845,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -24856,7 +24856,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>216/0</t>
+          <t>217/0</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -24875,11 +24875,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>217/0</t>
+          <t>217A/0</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>456</v>
+        <v>347</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -24891,7 +24891,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t xml:space="preserve">216/0, ,217/0, </t>
+          <t xml:space="preserve">217/0, ,217A/0, </t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -24920,7 +24920,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -24931,7 +24931,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>217/0</t>
+          <t>217A/0</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -24950,15 +24950,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>217A/0</t>
+          <t>218/0</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>347</v>
+        <v>1174</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -24966,7 +24966,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve">217/0, ,217A/0, </t>
+          <t xml:space="preserve">217A/0, ,218/0, </t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -24995,7 +24995,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -25006,7 +25006,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>217A/0</t>
+          <t>218/0</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -25025,15 +25025,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>218/0</t>
+          <t>219/0</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1174</v>
+        <v>822</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>TSE</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -25041,7 +25041,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t xml:space="preserve">217A/0, ,218/0, </t>
+          <t xml:space="preserve">218/1, 218/0, 219/0, </t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -25070,7 +25070,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -25081,7 +25081,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>218/0</t>
+          <t>219/0</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -25100,15 +25100,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>219/0</t>
+          <t>220/0</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>822</v>
+        <v>242</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -25116,7 +25116,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t xml:space="preserve">218/1, 218/0, 219/0, </t>
+          <t xml:space="preserve">219/0, 220/0, </t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -25145,7 +25145,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -25156,7 +25156,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>219/0</t>
+          <t>220/0</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -25175,15 +25175,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>220/0</t>
+          <t>221/0</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>242</v>
+        <v>735</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -25191,7 +25191,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t xml:space="preserve">219/0, 220/0, </t>
+          <t xml:space="preserve">220/1,222/0, ,221/0, </t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -25220,7 +25220,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -25231,7 +25231,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>220/0</t>
+          <t>221/0</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -25250,15 +25250,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>221/0</t>
+          <t>222/0</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>735</v>
+        <v>222</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -25266,7 +25266,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve">220/1,222/0, ,221/0, </t>
+          <t xml:space="preserve">221/0, ,222/0, </t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -25295,7 +25295,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -25306,7 +25306,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>221/0</t>
+          <t>222/0</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -25325,15 +25325,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>222/0</t>
+          <t>222/1</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>222</v>
+        <v>388</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -25341,7 +25341,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t xml:space="preserve">221/0, ,222/0, </t>
+          <t>222/0, 222/1</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -25370,7 +25370,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -25381,7 +25381,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>222/0</t>
+          <t>222/1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -25400,15 +25400,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>222/1</t>
+          <t>223/0</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>388</v>
+        <v>183</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -25416,7 +25416,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>222/0, 222/1</t>
+          <t xml:space="preserve">222/1,223/0, </t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -25445,7 +25445,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -25456,7 +25456,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>222/1</t>
+          <t>223/0</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -25475,15 +25475,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>223/0</t>
+          <t>224/0</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>183</v>
+        <v>1398</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -25491,7 +25491,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t xml:space="preserve">222/1,223/0, </t>
+          <t>223/0, 223/2, 223/3</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -25520,7 +25520,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -25531,7 +25531,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -25540,7 +25540,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>223/0</t>
+          <t>224/0</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -25550,28 +25550,26 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>224/0</t>
+          <t>225/0</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1398</v>
+        <v>235</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>TSE</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>223/0, 223/2, 223/3</t>
-        </is>
+      <c r="I84" t="n">
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -25595,7 +25593,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -25606,7 +25604,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -25615,7 +25613,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>224/0</t>
+          <t>225/0</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -25625,26 +25623,28 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>225/0</t>
+          <t>226/0</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>235</v>
+        <v>678</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">225/1, 226/0, </t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Ready</t>
+          <t>Not Ready</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -25668,7 +25668,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -25679,7 +25679,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>225/0</t>
+          <t>226/0</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -25698,11 +25698,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>226/0</t>
+          <t>227/0</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>678</v>
+        <v>417</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t xml:space="preserve">225/1, 226/0, </t>
+          <t xml:space="preserve">226/0, ,227/0, </t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -25743,7 +25743,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -25754,7 +25754,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>226/0</t>
+          <t>227/0</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -25773,11 +25773,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>227/0</t>
+          <t>228/0</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>417</v>
+        <v>239</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve">226/0, ,227/0, </t>
+          <t xml:space="preserve">227/0, ,228/0, </t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -25818,7 +25818,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -25829,7 +25829,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>227/0</t>
+          <t>228/0</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -25848,15 +25848,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>228/0</t>
+          <t>229/0</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -25864,7 +25864,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve">227/0, ,228/0, </t>
+          <t xml:space="preserve">228/0, ,229/0, </t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -25893,7 +25893,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -25904,7 +25904,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>228/0</t>
+          <t>229/0</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -25923,15 +25923,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>229/0</t>
+          <t>229/1</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>196</v>
+        <v>549</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -25939,7 +25939,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t xml:space="preserve">228/0, ,229/0, </t>
+          <t>229/0, ,229/1</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -25968,7 +25968,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -25979,7 +25979,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>229/0</t>
+          <t>229/1</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -25998,15 +25998,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>229/1</t>
+          <t>230/0</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>549</v>
+        <v>1884</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -26014,7 +26014,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>229/0, ,229/1</t>
+          <t xml:space="preserve">229/1230/0, </t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -26043,7 +26043,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -26054,7 +26054,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -26063,7 +26063,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>229/1</t>
+          <t>230/0</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -26073,23 +26073,23 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
+          <t>231/0</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>227</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Hotline</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
           <t>230/0</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>1884</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>TSE</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">229/1230/0, </t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -26118,7 +26118,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -26129,7 +26129,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>230/0</t>
+          <t>231/0</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -26148,15 +26148,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>231/0</t>
+          <t>232/0</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>227</v>
+        <v>419</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -26164,7 +26164,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>230/0</t>
+          <t xml:space="preserve">232/0, </t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -26193,7 +26193,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -26204,7 +26204,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>231/0</t>
+          <t>232/0</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -26223,23 +26223,23 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
+          <t>233/0</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>195</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Hotline</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
           <t>232/0</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>419</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">232/0, </t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -26268,7 +26268,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -26279,7 +26279,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>232/0</t>
+          <t>233/0</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -26298,28 +26298,26 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>233/0</t>
+          <t>234/0</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>232/0</t>
-        </is>
+      <c r="I94" t="n">
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -26343,7 +26341,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -26354,7 +26352,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -26363,7 +26361,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>233/0</t>
+          <t>234/0</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -26373,26 +26371,28 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>234/0</t>
+          <t>235/0</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">235/0, </t>
+        </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Ready</t>
+          <t>Not Ready</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -26416,7 +26416,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -26427,7 +26427,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -26436,7 +26436,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>234/0</t>
+          <t>235/0</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -26446,23 +26446,23 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
+          <t>236/0</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>305</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
           <t>235/0</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>328</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Hotline</t>
-        </is>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">235/0, </t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -26491,7 +26491,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -26502,7 +26502,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>235/0</t>
+          <t>236/0</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -26521,15 +26521,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>236/0</t>
+          <t>237/0</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -26537,7 +26537,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>235/0</t>
+          <t xml:space="preserve">237/0, </t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -26566,7 +26566,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -26577,7 +26577,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>236/0</t>
+          <t>237/0</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -26596,15 +26596,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>237/0</t>
+          <t>239/0</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>280</v>
+        <v>2519</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -26612,7 +26612,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t xml:space="preserve">237/0, </t>
+          <t xml:space="preserve">239/0 </t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -26641,7 +26641,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -26652,7 +26652,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>237/0</t>
+          <t>239/0</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -26671,15 +26671,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>239/0</t>
+          <t>240/0</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2519</v>
+        <v>248</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>TSE</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -26687,7 +26687,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t xml:space="preserve">239/0 </t>
+          <t xml:space="preserve">239/0, 240/0, </t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -26716,7 +26716,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -26727,7 +26727,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>239/0</t>
+          <t>240/0</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -26746,23 +26746,23 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
+          <t>241/0</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>207</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
           <t>240/0</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>248</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Hotline</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">239/0, 240/0, </t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -26791,7 +26791,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -26802,7 +26802,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>240/0</t>
+          <t>241/0</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -26821,28 +26821,26 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>241/0</t>
+          <t>242/0</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>240/0</t>
-        </is>
+      <c r="I101" t="n">
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
@@ -26866,7 +26864,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -26877,7 +26875,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -26886,7 +26884,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>241/0</t>
+          <t>242/0</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -26896,15 +26894,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>242/0</t>
+          <t>243/0</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>246</v>
+        <v>1335</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -26939,7 +26937,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -26950,7 +26948,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -26959,7 +26957,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>242/0</t>
+          <t>243/0</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -26969,15 +26967,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>243/0</t>
+          <t>244/0</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1335</v>
+        <v>250</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>TSE</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -27012,7 +27010,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -27023,7 +27021,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -27032,7 +27030,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>243/0</t>
+          <t>244/0</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -27042,15 +27040,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>244/0</t>
+          <t>244/1</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>250</v>
+        <v>494</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -27085,7 +27083,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -27096,7 +27094,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -27105,7 +27103,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>244/0</t>
+          <t>244/1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -27115,11 +27113,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>244/1</t>
+          <t>245/0</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>494</v>
+        <v>427</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -27129,12 +27127,14 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">245/0, </t>
+        </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Ready</t>
+          <t>Not Ready</t>
         </is>
       </c>
       <c r="K105" t="inlineStr"/>
@@ -27158,7 +27158,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -27169,7 +27169,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -27178,7 +27178,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>244/1</t>
+          <t>245/0</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -27188,11 +27188,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>245/0</t>
+          <t>246/0</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>427</v>
+        <v>569</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t xml:space="preserve">245/0, </t>
+          <t xml:space="preserve">245/0 </t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -27233,7 +27233,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -27244,7 +27244,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>245/0</t>
+          <t>246/0</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -27263,28 +27263,26 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>246/0</t>
+          <t>247/0</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>569</v>
+        <v>240</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Hotline</t>
         </is>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">245/0 </t>
-        </is>
+      <c r="I107" t="n">
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="K107" t="inlineStr"/>
@@ -27308,7 +27306,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -27319,7 +27317,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -27328,7 +27326,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>246/0</t>
+          <t>247/0</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -27338,15 +27336,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>247/0</t>
+          <t>248/0</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>240</v>
+        <v>1957</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Hotline</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -27376,12 +27374,12 @@
       <c r="X108" t="inlineStr"/>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>Surat</t>
+          <t>Navsari</t>
         </is>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -27392,7 +27390,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -27401,7 +27399,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>247/0</t>
+          <t>272/5</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -27411,11 +27409,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>248/0</t>
+          <t>272A/0</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1957</v>
+        <v>1202</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -27454,7 +27452,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -27465,7 +27463,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -27474,7 +27472,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>272/5</t>
+          <t>272A/0</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -27484,11 +27482,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>272A/0</t>
+          <t>273/0</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1202</v>
+        <v>2944</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -27527,7 +27525,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -27538,7 +27536,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -27547,7 +27545,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>272A/0</t>
+          <t>273/0</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -27557,11 +27555,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>273/0</t>
+          <t>274/0</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2944</v>
+        <v>1153</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -27600,7 +27598,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
@@ -27610,48 +27608,16 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>226</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>BAR</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>273/0</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>274/0</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>1153</v>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>TSE</t>
-        </is>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Ready</t>
-        </is>
-      </c>
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
@@ -27666,14 +27632,10 @@
       <c r="V112" t="inlineStr"/>
       <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr">
-        <is>
-          <t>Navsari</t>
-        </is>
-      </c>
+      <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
@@ -27687,8 +27649,14 @@
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>177.344724</v>
+      </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
@@ -27710,53 +27678,10 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
+          <t>TA 325 - DPR - 2025-10-29.xlsx</t>
         </is>
       </c>
       <c r="AA113" t="inlineStr">
-        <is>
-          <t>Invalid PO Start Date; Invalid F/S Complete Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr"/>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>177.344724</v>
-      </c>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr">
-        <is>
-          <t>TA 325 - DPR - 2025-10-26.xlsx</t>
-        </is>
-      </c>
-      <c r="AA114" t="inlineStr">
         <is>
           <t>Invalid PO Start Date; Invalid F/S Complete Date</t>
         </is>
